--- a/Data/EC/NIT-9004064366.xlsx
+++ b/Data/EC/NIT-9004064366.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ACA176F-2EB1-4FCE-A0B9-3D5F839B5946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FD3A816-85BA-4EA0-8495-F7FEBB398B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A2F66577-8D1E-4981-AA8A-7E8A6B3B9D0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2438D085-1F69-407E-848E-D93EC9BE749F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="110">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,274 +71,268 @@
     <t>WILLIAM OSPINA RIVERA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>2211</t>
   </si>
   <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1041977258</t>
-  </si>
-  <si>
-    <t>MARIO FELIPE MARTINEZ FLOREZ</t>
+    <t>20519447</t>
+  </si>
+  <si>
+    <t>JOSE LUIS FONSECA CHIQUILLO</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>1050957653</t>
+  </si>
+  <si>
+    <t>JOSE LUIS PAJARO HERRERA</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1049429425</t>
-  </si>
-  <si>
-    <t>JOSE LUIS FONSECA CHIQUILLO</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>1050957653</t>
-  </si>
-  <si>
-    <t>JOSE LUIS PAJARO HERRERA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -437,7 +431,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -450,9 +446,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -652,23 +646,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -696,10 +690,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,7 +746,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9481C5-A909-C783-6E52-AC776A876D2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A41F3A87-0370-636C-814A-D178E2A22A0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1103,8 +1097,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EB9A2C-B7D7-4B2D-8744-121ECA22AB4E}">
-  <dimension ref="B2:J110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43350A2D-8678-445B-B64B-1C084BF2955B}">
+  <dimension ref="B2:J105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1115,7 +1109,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1128,7 +1122,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1173,7 +1167,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1205,12 +1199,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>34670821</v>
+        <v>34376630</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1221,14 +1215,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="5">
         <v>84</v>
@@ -1258,13 +1252,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1284,7 +1278,7 @@
         <v>440000</v>
       </c>
       <c r="G16" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1307,7 +1301,7 @@
         <v>440000</v>
       </c>
       <c r="G17" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1330,7 +1324,7 @@
         <v>440000</v>
       </c>
       <c r="G18" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1353,7 +1347,7 @@
         <v>440000</v>
       </c>
       <c r="G19" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1376,7 +1370,7 @@
         <v>440000</v>
       </c>
       <c r="G20" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1399,7 +1393,7 @@
         <v>440000</v>
       </c>
       <c r="G21" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1422,7 +1416,7 @@
         <v>440000</v>
       </c>
       <c r="G22" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1445,7 +1439,7 @@
         <v>440000</v>
       </c>
       <c r="G23" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1468,7 +1462,7 @@
         <v>440000</v>
       </c>
       <c r="G24" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1491,7 +1485,7 @@
         <v>440000</v>
       </c>
       <c r="G25" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1514,7 +1508,7 @@
         <v>440000</v>
       </c>
       <c r="G26" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1537,7 +1531,7 @@
         <v>440000</v>
       </c>
       <c r="G27" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1560,7 +1554,7 @@
         <v>440000</v>
       </c>
       <c r="G28" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1583,7 +1577,7 @@
         <v>440000</v>
       </c>
       <c r="G29" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1606,7 +1600,7 @@
         <v>440000</v>
       </c>
       <c r="G30" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1629,7 +1623,7 @@
         <v>440000</v>
       </c>
       <c r="G31" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1652,7 +1646,7 @@
         <v>440000</v>
       </c>
       <c r="G32" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1675,7 +1669,7 @@
         <v>440000</v>
       </c>
       <c r="G33" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1698,7 +1692,7 @@
         <v>440000</v>
       </c>
       <c r="G34" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1721,7 +1715,7 @@
         <v>440000</v>
       </c>
       <c r="G35" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1744,7 +1738,7 @@
         <v>440000</v>
       </c>
       <c r="G36" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1767,7 +1761,7 @@
         <v>440000</v>
       </c>
       <c r="G37" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1790,7 +1784,7 @@
         <v>440000</v>
       </c>
       <c r="G38" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1813,7 +1807,7 @@
         <v>440000</v>
       </c>
       <c r="G39" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1836,7 +1830,7 @@
         <v>440000</v>
       </c>
       <c r="G40" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1859,7 +1853,7 @@
         <v>440000</v>
       </c>
       <c r="G41" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1882,7 +1876,7 @@
         <v>440000</v>
       </c>
       <c r="G42" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1905,7 +1899,7 @@
         <v>440000</v>
       </c>
       <c r="G43" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1928,7 +1922,7 @@
         <v>440000</v>
       </c>
       <c r="G44" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1951,7 +1945,7 @@
         <v>440000</v>
       </c>
       <c r="G45" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1974,7 +1968,7 @@
         <v>440000</v>
       </c>
       <c r="G46" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1997,7 +1991,7 @@
         <v>440000</v>
       </c>
       <c r="G47" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2020,7 +2014,7 @@
         <v>440000</v>
       </c>
       <c r="G48" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2043,7 +2037,7 @@
         <v>440000</v>
       </c>
       <c r="G49" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2066,7 +2060,7 @@
         <v>440000</v>
       </c>
       <c r="G50" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2089,7 +2083,7 @@
         <v>440000</v>
       </c>
       <c r="G51" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2112,7 +2106,7 @@
         <v>440000</v>
       </c>
       <c r="G52" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2135,7 +2129,7 @@
         <v>440000</v>
       </c>
       <c r="G53" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2158,7 +2152,7 @@
         <v>440000</v>
       </c>
       <c r="G54" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2181,7 +2175,7 @@
         <v>440000</v>
       </c>
       <c r="G55" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2204,7 +2198,7 @@
         <v>440000</v>
       </c>
       <c r="G56" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2227,7 +2221,7 @@
         <v>440000</v>
       </c>
       <c r="G57" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2250,7 +2244,7 @@
         <v>440000</v>
       </c>
       <c r="G58" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2273,7 +2267,7 @@
         <v>440000</v>
       </c>
       <c r="G59" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2296,7 +2290,7 @@
         <v>440000</v>
       </c>
       <c r="G60" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2319,7 +2313,7 @@
         <v>440000</v>
       </c>
       <c r="G61" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2342,7 +2336,7 @@
         <v>440000</v>
       </c>
       <c r="G62" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2365,7 +2359,7 @@
         <v>440000</v>
       </c>
       <c r="G63" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2388,7 +2382,7 @@
         <v>440000</v>
       </c>
       <c r="G64" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2411,7 +2405,7 @@
         <v>440000</v>
       </c>
       <c r="G65" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2434,7 +2428,7 @@
         <v>440000</v>
       </c>
       <c r="G66" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2457,7 +2451,7 @@
         <v>440000</v>
       </c>
       <c r="G67" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2480,7 +2474,7 @@
         <v>440000</v>
       </c>
       <c r="G68" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2503,7 +2497,7 @@
         <v>440000</v>
       </c>
       <c r="G69" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2526,7 +2520,7 @@
         <v>440000</v>
       </c>
       <c r="G70" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2549,7 +2543,7 @@
         <v>440000</v>
       </c>
       <c r="G71" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2572,7 +2566,7 @@
         <v>440000</v>
       </c>
       <c r="G72" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2595,7 +2589,7 @@
         <v>440000</v>
       </c>
       <c r="G73" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2618,7 +2612,7 @@
         <v>440000</v>
       </c>
       <c r="G74" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2641,7 +2635,7 @@
         <v>440000</v>
       </c>
       <c r="G75" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2664,7 +2658,7 @@
         <v>440000</v>
       </c>
       <c r="G76" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2687,7 +2681,7 @@
         <v>440000</v>
       </c>
       <c r="G77" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2710,7 +2704,7 @@
         <v>440000</v>
       </c>
       <c r="G78" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2733,7 +2727,7 @@
         <v>440000</v>
       </c>
       <c r="G79" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2756,7 +2750,7 @@
         <v>440000</v>
       </c>
       <c r="G80" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2779,7 +2773,7 @@
         <v>440000</v>
       </c>
       <c r="G81" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2802,7 +2796,7 @@
         <v>440000</v>
       </c>
       <c r="G82" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2825,7 +2819,7 @@
         <v>440000</v>
       </c>
       <c r="G83" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2848,7 +2842,7 @@
         <v>440000</v>
       </c>
       <c r="G84" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2871,7 +2865,7 @@
         <v>440000</v>
       </c>
       <c r="G85" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2894,7 +2888,7 @@
         <v>440000</v>
       </c>
       <c r="G86" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2917,7 +2911,7 @@
         <v>440000</v>
       </c>
       <c r="G87" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2940,7 +2934,7 @@
         <v>440000</v>
       </c>
       <c r="G88" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2963,7 +2957,7 @@
         <v>440000</v>
       </c>
       <c r="G89" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2986,7 +2980,7 @@
         <v>440000</v>
       </c>
       <c r="G90" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3009,7 +3003,7 @@
         <v>440000</v>
       </c>
       <c r="G91" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3032,7 +3026,7 @@
         <v>440000</v>
       </c>
       <c r="G92" s="18">
-        <v>32500000</v>
+        <v>30269141</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3052,10 +3046,10 @@
         <v>90</v>
       </c>
       <c r="F93" s="18">
-        <v>61369</v>
+        <v>52492</v>
       </c>
       <c r="G93" s="18">
-        <v>1534230</v>
+        <v>1312297</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3066,19 +3060,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F94" s="18">
-        <v>61369</v>
+        <v>74023</v>
       </c>
       <c r="G94" s="18">
-        <v>1534230</v>
+        <v>1850568</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3089,19 +3083,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F95" s="18">
-        <v>61369</v>
+        <v>74023</v>
       </c>
       <c r="G95" s="18">
-        <v>1534230</v>
+        <v>1850568</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3112,19 +3106,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F96" s="18">
-        <v>61369</v>
+        <v>74023</v>
       </c>
       <c r="G96" s="18">
-        <v>1534230</v>
+        <v>1850568</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3135,19 +3129,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F97" s="18">
-        <v>61369</v>
+        <v>74023</v>
       </c>
       <c r="G97" s="18">
-        <v>1534230</v>
+        <v>1850568</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3158,190 +3152,75 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F98" s="18">
-        <v>61369</v>
+        <v>74023</v>
       </c>
       <c r="G98" s="18">
-        <v>1534230</v>
+        <v>1850568</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E99" s="16" t="s">
+      <c r="B99" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E99" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="18">
-        <v>52492</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1312297</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F100" s="18">
+      <c r="F99" s="24">
         <v>74023</v>
       </c>
-      <c r="G100" s="18">
+      <c r="G99" s="24">
         <v>1850568</v>
       </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F101" s="18">
-        <v>74023</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1850568</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F102" s="18">
-        <v>74023</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1850568</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F103" s="18">
-        <v>74023</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1850568</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="26"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E104" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F104" s="24">
-        <v>74023</v>
-      </c>
-      <c r="G104" s="24">
-        <v>1850568</v>
-      </c>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="26"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" s="32"/>
-      <c r="H109" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="32" t="s">
+      <c r="B104" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="32"/>
+      <c r="H104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="H105" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="32"/>
-      <c r="H110" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="H104:J104"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
